--- a/Data/ChileCopperExportsTons.xlsx
+++ b/Data/ChileCopperExportsTons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Library/Mobile Documents/com~apple~CloudDocs/Meyrick/R/Git/Asset_Management/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meyrick/Library/Mobile Documents/com~apple~CloudDocs/Meyrick/R/Git/Asset_Management/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F7C97C-F4D8-E745-9B29-74817E7597FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB1D97-DCFA-FE4C-A96F-55A4D8575175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="11400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadro" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mmm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\.yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -68,7 +68,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,13 +93,28 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -108,6 +123,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252:A288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -447,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>36526</v>
       </c>
@@ -455,7 +473,7 @@
         <v>354.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>36557</v>
       </c>
@@ -463,7 +481,7 @@
         <v>341.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>36586</v>
       </c>
@@ -471,7 +489,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>36617</v>
       </c>
@@ -479,7 +497,7 @@
         <v>268.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>36647</v>
       </c>
@@ -487,7 +505,7 @@
         <v>447.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36678</v>
       </c>
@@ -495,7 +513,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36708</v>
       </c>
@@ -503,7 +521,7 @@
         <v>415.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36739</v>
       </c>
@@ -511,7 +529,7 @@
         <v>409.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36770</v>
       </c>
@@ -519,7 +537,7 @@
         <v>328.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36800</v>
       </c>
@@ -527,7 +545,7 @@
         <v>419.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36831</v>
       </c>
@@ -535,7 +553,7 @@
         <v>323.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36861</v>
       </c>
@@ -543,7 +561,7 @@
         <v>367.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36892</v>
       </c>
@@ -551,7 +569,7 @@
         <v>430.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36923</v>
       </c>
@@ -559,7 +577,7 @@
         <v>349.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36951</v>
       </c>
@@ -567,7 +585,7 @@
         <v>352.2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>36982</v>
       </c>
@@ -575,7 +593,7 @@
         <v>405.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37012</v>
       </c>
@@ -583,7 +601,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37043</v>
       </c>
@@ -591,7 +609,7 @@
         <v>355.3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37073</v>
       </c>
@@ -599,7 +617,7 @@
         <v>363.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>37104</v>
       </c>
@@ -607,7 +625,7 @@
         <v>480.4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>37135</v>
       </c>
@@ -615,7 +633,7 @@
         <v>333.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>37165</v>
       </c>
@@ -623,7 +641,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37196</v>
       </c>
@@ -631,7 +649,7 @@
         <v>351.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>37226</v>
       </c>
@@ -639,7 +657,7 @@
         <v>333.7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>37257</v>
       </c>
@@ -647,7 +665,7 @@
         <v>419.8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>37288</v>
       </c>
@@ -655,7 +673,7 @@
         <v>355.2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>37316</v>
       </c>
@@ -663,7 +681,7 @@
         <v>355.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>37347</v>
       </c>
@@ -671,7 +689,7 @@
         <v>378.9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>37377</v>
       </c>
@@ -679,7 +697,7 @@
         <v>363.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37408</v>
       </c>
@@ -687,7 +705,7 @@
         <v>457.4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>37438</v>
       </c>
@@ -695,7 +713,7 @@
         <v>342.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37469</v>
       </c>
@@ -703,7 +721,7 @@
         <v>338.7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>37500</v>
       </c>
@@ -711,7 +729,7 @@
         <v>296.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37530</v>
       </c>
@@ -719,7 +737,7 @@
         <v>446.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>37561</v>
       </c>
@@ -727,7 +745,7 @@
         <v>410.9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37591</v>
       </c>
@@ -735,7 +753,7 @@
         <v>336.6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37622</v>
       </c>
@@ -743,7 +761,7 @@
         <v>470.3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37653</v>
       </c>
@@ -751,7 +769,7 @@
         <v>375.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37681</v>
       </c>
@@ -759,7 +777,7 @@
         <v>342.7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>37712</v>
       </c>
@@ -767,7 +785,7 @@
         <v>392.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>37742</v>
       </c>
@@ -775,7 +793,7 @@
         <v>374.2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>37773</v>
       </c>
@@ -783,7 +801,7 @@
         <v>413.9</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37803</v>
       </c>
@@ -791,7 +809,7 @@
         <v>395.3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37834</v>
       </c>
@@ -799,7 +817,7 @@
         <v>402.8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37865</v>
       </c>
@@ -807,7 +825,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37895</v>
       </c>
@@ -815,7 +833,7 @@
         <v>429.8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37926</v>
       </c>
@@ -823,7 +841,7 @@
         <v>383.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37956</v>
       </c>
@@ -831,7 +849,7 @@
         <v>356.8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>37987</v>
       </c>
@@ -839,7 +857,7 @@
         <v>358.8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>38018</v>
       </c>
@@ -847,7 +865,7 @@
         <v>365.9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>38047</v>
       </c>
@@ -855,7 +873,7 @@
         <v>539.70000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>38078</v>
       </c>
@@ -863,7 +881,7 @@
         <v>462.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38108</v>
       </c>
@@ -871,7 +889,7 @@
         <v>527.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>38139</v>
       </c>
@@ -879,7 +897,7 @@
         <v>393.5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>38169</v>
       </c>
@@ -887,7 +905,7 @@
         <v>476.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38200</v>
       </c>
@@ -895,7 +913,7 @@
         <v>523.70000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>38231</v>
       </c>
@@ -903,7 +921,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>38261</v>
       </c>
@@ -911,7 +929,7 @@
         <v>536.29999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>38292</v>
       </c>
@@ -919,7 +937,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>38322</v>
       </c>
@@ -927,7 +945,7 @@
         <v>571.20000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>38353</v>
       </c>
@@ -935,7 +953,7 @@
         <v>411.5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>38384</v>
       </c>
@@ -943,7 +961,7 @@
         <v>333.1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>38412</v>
       </c>
@@ -951,7 +969,7 @@
         <v>561.79999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>38443</v>
       </c>
@@ -959,7 +977,7 @@
         <v>432.1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>38473</v>
       </c>
@@ -967,7 +985,7 @@
         <v>396.7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>38504</v>
       </c>
@@ -975,7 +993,7 @@
         <v>503.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>38534</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>413.2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>38565</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>474.6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>38596</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>445.8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>38626</v>
       </c>
@@ -1007,7 +1025,7 @@
         <v>432.1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>38657</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>475.9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38687</v>
       </c>
@@ -1023,7 +1041,7 @@
         <v>456.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38718</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>389.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38749</v>
       </c>
@@ -1039,7 +1057,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38777</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38808</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>371.4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38838</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>485.6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38869</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>414.1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38899</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>492.3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38930</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38961</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>451.1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>38991</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>39022</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>426.6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>39052</v>
       </c>
@@ -1119,7 +1137,7 @@
         <v>377.6</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>39083</v>
       </c>
@@ -1127,7 +1145,7 @@
         <v>560.74459000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>39114</v>
       </c>
@@ -1135,7 +1153,7 @@
         <v>415.20030000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>39142</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>465.91676000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>39173</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>476.12959999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>39203</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>597.42444999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>39234</v>
       </c>
@@ -1167,7 +1185,7 @@
         <v>418.93966</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>39264</v>
       </c>
@@ -1175,7 +1193,7 @@
         <v>495.12813999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>39295</v>
       </c>
@@ -1183,7 +1201,7 @@
         <v>383.08800000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>39326</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>458.47196000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>39356</v>
       </c>
@@ -1199,7 +1217,7 @@
         <v>567.08974999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>39387</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>444.98737</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>39417</v>
       </c>
@@ -1215,7 +1233,7 @@
         <v>390.22993000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>39448</v>
       </c>
@@ -1223,7 +1241,7 @@
         <v>513.40246000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>39479</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>406.91620999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>39508</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>549.29616999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>39539</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>464.43896000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>39569</v>
       </c>
@@ -1255,7 +1273,7 @@
         <v>355.49225999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>39600</v>
       </c>
@@ -1263,7 +1281,7 @@
         <v>450.18554999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>39630</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>524.75265999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>39661</v>
       </c>
@@ -1279,7 +1297,7 @@
         <v>448.13902999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>39692</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>347.39138000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>39722</v>
       </c>
@@ -1295,7 +1313,7 @@
         <v>496.10480000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>39753</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>475.70900999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>39783</v>
       </c>
@@ -1311,7 +1329,7 @@
         <v>373.42639000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39814</v>
       </c>
@@ -1319,7 +1337,7 @@
         <v>487.56869999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39845</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>413.75749999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39873</v>
       </c>
@@ -1335,7 +1353,7 @@
         <v>423.46881000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39904</v>
       </c>
@@ -1343,7 +1361,7 @@
         <v>478.39371</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39934</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>443.48430000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39965</v>
       </c>
@@ -1359,7 +1377,7 @@
         <v>438.22591999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>39995</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>491.84395999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40026</v>
       </c>
@@ -1375,7 +1393,7 @@
         <v>392.72390000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40057</v>
       </c>
@@ -1383,7 +1401,7 @@
         <v>454.13589999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40087</v>
       </c>
@@ -1391,7 +1409,7 @@
         <v>419.15343999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40118</v>
       </c>
@@ -1399,7 +1417,7 @@
         <v>485.16554000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40148</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>492.57659999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40179</v>
       </c>
@@ -1415,7 +1433,7 @@
         <v>507.57497000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40210</v>
       </c>
@@ -1423,7 +1441,7 @@
         <v>396.68068</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40238</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>457.70771999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40269</v>
       </c>
@@ -1439,7 +1457,7 @@
         <v>434.02560999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40299</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>410.70839000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40330</v>
       </c>
@@ -1455,7 +1473,7 @@
         <v>428.03147999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40360</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>478.95310000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40391</v>
       </c>
@@ -1471,7 +1489,7 @@
         <v>405.57216</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40422</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>548.79448000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40452</v>
       </c>
@@ -1487,7 +1505,7 @@
         <v>360.41019</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40483</v>
       </c>
@@ -1495,7 +1513,7 @@
         <v>484.72217999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40513</v>
       </c>
@@ -1503,7 +1521,7 @@
         <v>528.93179999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40544</v>
       </c>
@@ -1511,7 +1529,7 @@
         <v>414.27920457699997</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40575</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>331.30929020100001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40603</v>
       </c>
@@ -1527,7 +1545,7 @@
         <v>413.972849725</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40634</v>
       </c>
@@ -1535,7 +1553,7 @@
         <v>401.88651782199997</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40664</v>
       </c>
@@ -1543,7 +1561,7 @@
         <v>464.97540838100002</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40695</v>
       </c>
@@ -1551,7 +1569,7 @@
         <v>387.29621161900002</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40725</v>
       </c>
@@ -1559,7 +1577,7 @@
         <v>461.84459617800002</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40756</v>
       </c>
@@ -1567,7 +1585,7 @@
         <v>404.04009250199999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40787</v>
       </c>
@@ -1575,7 +1593,7 @@
         <v>408.16536282700002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40817</v>
       </c>
@@ -1583,7 +1601,7 @@
         <v>454.59642558000002</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40848</v>
       </c>
@@ -1591,7 +1609,7 @@
         <v>491.465536843</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40878</v>
       </c>
@@ -1599,7 +1617,7 @@
         <v>435.63399437999999</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40909</v>
       </c>
@@ -1607,7 +1625,7 @@
         <v>547.44592953799997</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40940</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>423.36706357399999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>40969</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>444.63102993000001</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>41000</v>
       </c>
@@ -1631,7 +1649,7 @@
         <v>384.48505234300001</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>41030</v>
       </c>
@@ -1639,7 +1657,7 @@
         <v>404.07952502500001</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>41061</v>
       </c>
@@ -1647,7 +1665,7 @@
         <v>483.72479174</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41091</v>
       </c>
@@ -1655,7 +1673,7 @@
         <v>517.43609459300001</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41122</v>
       </c>
@@ -1663,7 +1681,7 @@
         <v>390.61907348199998</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41153</v>
       </c>
@@ -1671,7 +1689,7 @@
         <v>291.14706915800002</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41183</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>447.13119261899999</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41214</v>
       </c>
@@ -1687,7 +1705,7 @@
         <v>476.45756539299998</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>41244</v>
       </c>
@@ -1695,7 +1713,7 @@
         <v>422.79502638999998</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41275</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>462.45551378800002</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>41306</v>
       </c>
@@ -1711,7 +1729,7 @@
         <v>477.65150757399999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>41334</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>401.11737518799998</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41365</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>261.39105975799998</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41395</v>
       </c>
@@ -1735,7 +1753,7 @@
         <v>426.11160172000001</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41426</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>634.48396141000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41456</v>
       </c>
@@ -1751,7 +1769,7 @@
         <v>439.30033802000003</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>41487</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>561.43587457000001</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41518</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>415.98473238999998</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41548</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>584.55591120500003</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41579</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>501.21241411</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41609</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>424.35464159000003</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41640</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>502.51019329000002</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41671</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>280.37656027999998</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41699</v>
       </c>
@@ -1815,7 +1833,7 @@
         <v>612.53651243000002</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41730</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>496.54328177999997</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41760</v>
       </c>
@@ -1831,7 +1849,7 @@
         <v>535.08608418999995</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41791</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>493.94325963</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41821</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>465.60670491000002</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41852</v>
       </c>
@@ -1855,7 +1873,7 @@
         <v>443.40364082999997</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41883</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>410.44843186200001</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41913</v>
       </c>
@@ -1871,7 +1889,7 @@
         <v>471.53968701000002</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41944</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>525.82895311000004</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41974</v>
       </c>
@@ -1887,7 +1905,7 @@
         <v>424.20469058999998</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42005</v>
       </c>
@@ -1895,7 +1913,7 @@
         <v>562.01491262000002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42036</v>
       </c>
@@ -1903,7 +1921,7 @@
         <v>507.36793259000001</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42064</v>
       </c>
@@ -1911,7 +1929,7 @@
         <v>413.17825818</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42095</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>489.02188993999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42125</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>452.68962792000002</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42156</v>
       </c>
@@ -1935,7 +1953,7 @@
         <v>435.25026451999997</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42186</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>636.35725729000001</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42217</v>
       </c>
@@ -1951,7 +1969,7 @@
         <v>443.13982313000002</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42248</v>
       </c>
@@ -1959,7 +1977,7 @@
         <v>501.65627188000002</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42278</v>
       </c>
@@ -1967,7 +1985,7 @@
         <v>439.37573161</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>42309</v>
       </c>
@@ -1975,7 +1993,7 @@
         <v>432.13185279999999</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>42339</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>482.70366521</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>42370</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>537.25852544999998</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>42401</v>
       </c>
@@ -1999,7 +2017,7 @@
         <v>345.49354255999998</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>42430</v>
       </c>
@@ -2007,7 +2025,7 @@
         <v>565.27764663999994</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>42461</v>
       </c>
@@ -2015,7 +2033,7 @@
         <v>521.81324584399999</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>42491</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>607.62346521999996</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>42522</v>
       </c>
@@ -2031,7 +2049,7 @@
         <v>509.71562426000003</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>42552</v>
       </c>
@@ -2039,7 +2057,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>42583</v>
       </c>
@@ -2047,7 +2065,7 @@
         <v>417.8</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>42614</v>
       </c>
@@ -2055,7 +2073,7 @@
         <v>427.7</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>42644</v>
       </c>
@@ -2063,7 +2081,7 @@
         <v>448.5</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42675</v>
       </c>
@@ -2071,7 +2089,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42705</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>591.79999999999995</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42736</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>567.20000000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42767</v>
       </c>
@@ -2095,7 +2113,7 @@
         <v>388.1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42795</v>
       </c>
@@ -2103,7 +2121,7 @@
         <v>463.2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42826</v>
       </c>
@@ -2111,7 +2129,7 @@
         <v>375.2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42856</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>471.3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42887</v>
       </c>
@@ -2127,7 +2145,7 @@
         <v>426.1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42917</v>
       </c>
@@ -2135,7 +2153,7 @@
         <v>495.2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42948</v>
       </c>
@@ -2143,7 +2161,7 @@
         <v>544.1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>42979</v>
       </c>
@@ -2151,7 +2169,7 @@
         <v>437.7</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43009</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>551.29999999999995</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43040</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>492.8</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43070</v>
       </c>
@@ -2175,7 +2193,7 @@
         <v>523.4</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43101</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>527.1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43132</v>
       </c>
@@ -2191,7 +2209,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43160</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>450.4</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43191</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>505.1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43221</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>518.5</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43252</v>
       </c>
@@ -2223,7 +2241,7 @@
         <v>531.79999999999995</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43282</v>
       </c>
@@ -2231,7 +2249,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43313</v>
       </c>
@@ -2239,7 +2257,7 @@
         <v>538.20000000000005</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43344</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>333.8</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43374</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>573.1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43405</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>521.5</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43435</v>
       </c>
@@ -2271,7 +2289,7 @@
         <v>494.5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43466</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43497</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43525</v>
       </c>
@@ -2295,7 +2313,7 @@
         <v>518.9</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43556</v>
       </c>
@@ -2303,7 +2321,7 @@
         <v>499.8</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43586</v>
       </c>
@@ -2311,7 +2329,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43617</v>
       </c>
@@ -2319,7 +2337,7 @@
         <v>481.9</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43647</v>
       </c>
@@ -2327,7 +2345,7 @@
         <v>575.70000000000005</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43678</v>
       </c>
@@ -2335,7 +2353,7 @@
         <v>510.6</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43709</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>439.5</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43739</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>553.6</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43770</v>
       </c>
@@ -2359,7 +2377,7 @@
         <v>446.9</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43800</v>
       </c>
@@ -2367,7 +2385,7 @@
         <v>486.2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43831</v>
       </c>
@@ -2375,7 +2393,7 @@
         <v>577.9</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43862</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>360.3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43891</v>
       </c>
@@ -2391,7 +2409,7 @@
         <v>541.5</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43922</v>
       </c>
@@ -2399,7 +2417,7 @@
         <v>571.4</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43952</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>447.7</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43983</v>
       </c>
@@ -2415,7 +2433,7 @@
         <v>545.70000000000005</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44013</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>525.20000000000005</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44044</v>
       </c>
@@ -2431,7 +2449,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44075</v>
       </c>
@@ -2439,7 +2457,7 @@
         <v>387.8</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44105</v>
       </c>
@@ -2447,7 +2465,7 @@
         <v>474.6</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44136</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44166</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44197</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>571.79999999999995</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44228</v>
       </c>
@@ -2479,7 +2497,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44256</v>
       </c>
@@ -2487,7 +2505,7 @@
         <v>507.8</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44287</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>504.5</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44317</v>
       </c>
@@ -2503,7 +2521,7 @@
         <v>458.7</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44348</v>
       </c>
@@ -2511,7 +2529,7 @@
         <v>410.7</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44378</v>
       </c>
@@ -2519,7 +2537,7 @@
         <v>557.79999999999995</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44409</v>
       </c>
@@ -2527,7 +2545,7 @@
         <v>575.6</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44440</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>425.3</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44470</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>412.9</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44501</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>480.7</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44531</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>491.1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44562</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>507.9</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44593</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>352.1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44621</v>
       </c>
@@ -2583,7 +2601,7 @@
         <v>458.9</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44652</v>
       </c>
@@ -2591,7 +2609,7 @@
         <v>434.4</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44682</v>
       </c>
@@ -2599,7 +2617,7 @@
         <v>315.7</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44713</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44743</v>
       </c>
@@ -2615,7 +2633,7 @@
         <v>397.6</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44774</v>
       </c>
@@ -2623,7 +2641,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44805</v>
       </c>
@@ -2631,12 +2649,108 @@
         <v>484.4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44835</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="5">
         <v>358.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B277" s="5">
+        <v>518.4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B278" s="5">
+        <v>423.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B279" s="5">
+        <v>434.4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B280" s="5">
+        <v>366.2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B281" s="5">
+        <v>453.7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B282" s="5">
+        <v>475.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B283" s="5">
+        <v>535.1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B284" s="5">
+        <v>388.8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B285" s="5">
+        <v>480.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B286" s="5">
+        <v>423.4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B287" s="5">
+        <v>418.1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B288" s="5">
+        <v>492.5</v>
       </c>
     </row>
   </sheetData>
